--- a/cd/7---Koordinatat-e-pikave-për-parcelë.xlsx
+++ b/cd/7---Koordinatat-e-pikave-për-parcelë.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Talinoc-i-Jerlive\KADASTRALE\231-0-Talinoc-jerlive\cd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Jezerc\3583-2-Jezerc-Shefkia\cd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>Nr</t>
   </si>
@@ -145,106 +145,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>GURI</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>RRETHOJ</t>
-  </si>
-  <si>
     <t>Gjithsej</t>
   </si>
   <si>
     <t>m²</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A22086</t>
-  </si>
-  <si>
-    <t>A48857</t>
-  </si>
-  <si>
-    <t>A48858</t>
-  </si>
-  <si>
-    <t>A48859</t>
-  </si>
-  <si>
-    <t>A48860</t>
-  </si>
-  <si>
-    <t>A52475</t>
-  </si>
-  <si>
-    <t>A52476</t>
-  </si>
-  <si>
-    <t>A52512</t>
-  </si>
-  <si>
-    <t>A52513</t>
-  </si>
-  <si>
-    <t>A52514</t>
-  </si>
-  <si>
-    <t>A52515</t>
-  </si>
-  <si>
-    <t>A52516</t>
-  </si>
-  <si>
-    <t>A52517</t>
-  </si>
-  <si>
-    <t>A52518</t>
-  </si>
-  <si>
-    <t>AA3</t>
-  </si>
-  <si>
-    <t>MURI</t>
-  </si>
-  <si>
-    <t>AA6</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B22086</t>
-  </si>
-  <si>
-    <t>RTCM-Ref 0003</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>RTCM-Ref 3312</t>
   </si>
 </sst>
 </file>
@@ -706,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -815,10 +719,72 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,6 +796,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -884,101 +874,25 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1620,7 +1534,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,106 +1549,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="A1" s="103"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
     </row>
     <row r="2" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="98"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="101"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -2187,17 +2101,17 @@
       <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="84"/>
     </row>
     <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
@@ -2215,7 +2129,7 @@
       <c r="E36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="74"/>
+      <c r="F36" s="104"/>
       <c r="G36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2242,16 +2156,16 @@
       <c r="E37" s="12">
         <v>619.98699999999997</v>
       </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="58">
+      <c r="F37" s="105"/>
+      <c r="G37" s="91">
         <f>C37-C38</f>
         <v>-4.9000000581145287E-3</v>
       </c>
-      <c r="H37" s="58">
+      <c r="H37" s="91">
         <f>D37-D38</f>
         <v>8.8999997824430466E-3</v>
       </c>
-      <c r="I37" s="78">
+      <c r="I37" s="108">
         <f>SQRT(G37^2+H37^2)</f>
         <v>1.0159724243157817E-2</v>
       </c>
@@ -2272,10 +2186,10 @@
       <c r="E38" s="12">
         <v>620.0095</v>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="80"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="110"/>
     </row>
     <row r="39" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
@@ -2293,16 +2207,16 @@
       <c r="E39" s="16">
         <v>619.88</v>
       </c>
-      <c r="F39" s="75"/>
-      <c r="G39" s="58">
+      <c r="F39" s="105"/>
+      <c r="G39" s="91">
         <f>C39-C40</f>
         <v>-8.0000050365924835E-4</v>
       </c>
-      <c r="H39" s="58">
+      <c r="H39" s="91">
         <f>D39-D40</f>
         <v>9.8999999463558197E-3</v>
       </c>
-      <c r="I39" s="78">
+      <c r="I39" s="108">
         <f>SQRT(G39^2+H39^2)</f>
         <v>9.9322706237647534E-3</v>
       </c>
@@ -2323,10 +2237,10 @@
       <c r="E40" s="20">
         <v>619.84889999999996</v>
       </c>
-      <c r="F40" s="76"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="79"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="109"/>
     </row>
     <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
@@ -2375,12 +2289,12 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="62"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="84"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
@@ -2553,28 +2467,28 @@
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="81" t="s">
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="82"/>
-      <c r="J61" s="85"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="80"/>
     </row>
     <row r="62" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="89" t="s">
+      <c r="A62" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="86"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="81"/>
     </row>
     <row r="63" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
@@ -2614,12 +2528,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="E62:G62"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="C8:I10"/>
@@ -2631,6 +2539,12 @@
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:G62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2643,986 +2557,577 @@
   <dimension ref="B2:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z38"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="G2" s="93" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="G2" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="95" t="s">
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="W2" s="96" t="s">
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="W2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="97" t="s">
+      <c r="X2" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="97"/>
+      <c r="Y2" s="113"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="98" t="s">
+      <c r="I3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="98" t="s">
+      <c r="K3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="98" t="s">
+      <c r="M3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="98" t="s">
+      <c r="N3" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="96" t="s">
+      <c r="O3" s="58"/>
+      <c r="P3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="96" t="s">
+      <c r="Q3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="100" t="s">
+      <c r="R3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="96" t="s">
+      <c r="S3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="96" t="s">
+      <c r="T3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="96" t="s">
+      <c r="U3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="101"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="103"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="65"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="101">
-        <v>52475</v>
-      </c>
-      <c r="C4" s="104">
-        <v>7512429.0959999999</v>
-      </c>
-      <c r="D4" s="104">
-        <v>4694465.3810000001</v>
-      </c>
-      <c r="E4" s="105" t="s">
+      <c r="B4" s="63">
+        <v>739100</v>
+      </c>
+      <c r="C4" s="66">
+        <v>7501839.8940000003</v>
+      </c>
+      <c r="D4" s="66">
+        <v>4691809.8959999997</v>
+      </c>
+      <c r="E4" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="68"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="65"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="63">
+        <v>758612</v>
+      </c>
+      <c r="C5" s="66">
+        <v>7501856.1160000004</v>
+      </c>
+      <c r="D5" s="66">
+        <v>4691786.4630000005</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="65"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="63">
+        <v>758613</v>
+      </c>
+      <c r="C6" s="66">
+        <v>7501803.7170000002</v>
+      </c>
+      <c r="D6" s="66">
+        <v>4691784.8509999998</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="65"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="63">
+        <v>758614</v>
+      </c>
+      <c r="C7" s="66">
+        <v>7501820.7929999996</v>
+      </c>
+      <c r="D7" s="66">
+        <v>4691760.1849999996</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="65"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="W8" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="107">
-        <v>43956.596747685187</v>
-      </c>
-      <c r="J4" s="104">
-        <v>7512493.5146000003</v>
-      </c>
-      <c r="K4" s="104">
-        <v>4694453.5307999998</v>
-      </c>
-      <c r="L4" s="105">
-        <v>619.14620000000002</v>
-      </c>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105">
-        <v>6.3399999999999998E-2</v>
-      </c>
-      <c r="O4" s="94"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="103"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="101">
-        <v>52514</v>
-      </c>
-      <c r="C5" s="104">
-        <v>7512438.3779999996</v>
-      </c>
-      <c r="D5" s="104">
-        <v>4694469.8569999998</v>
-      </c>
-      <c r="E5" s="105"/>
-      <c r="G5" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="107">
-        <v>43956.598171296297</v>
-      </c>
-      <c r="J5" s="104">
-        <v>7512492.6113999998</v>
-      </c>
-      <c r="K5" s="104">
-        <v>4694454.6670000004</v>
-      </c>
-      <c r="L5" s="105">
-        <v>619.8415</v>
-      </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="102"/>
-      <c r="Y5" s="103"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="101">
-        <v>52513</v>
-      </c>
-      <c r="C6" s="104">
-        <v>7512445.2570000002</v>
-      </c>
-      <c r="D6" s="104">
-        <v>4694471.0580000002</v>
-      </c>
-      <c r="E6" s="105"/>
-      <c r="G6" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="107">
-        <v>43956.59784722222</v>
-      </c>
-      <c r="J6" s="104">
-        <v>7512443.2230000002</v>
-      </c>
-      <c r="K6" s="104">
-        <v>4694436.0767999999</v>
-      </c>
-      <c r="L6" s="105">
-        <v>619.98699999999997</v>
-      </c>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105">
-        <v>2.8299999999999999E-2</v>
-      </c>
-      <c r="O6" s="94"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="103"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="101">
-        <v>52512</v>
-      </c>
-      <c r="C7" s="104">
-        <v>7512469.1730000004</v>
-      </c>
-      <c r="D7" s="104">
-        <v>4694476.6260000002</v>
-      </c>
-      <c r="E7" s="105"/>
-      <c r="G7" s="106" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="107">
-        <v>43956.601342592592</v>
-      </c>
-      <c r="J7" s="104">
-        <v>7512455.5828999998</v>
-      </c>
-      <c r="K7" s="104">
-        <v>4694440.4879999999</v>
-      </c>
-      <c r="L7" s="105">
-        <v>620.06320000000005</v>
-      </c>
-      <c r="M7" s="105" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="105">
-        <v>2.63E-2</v>
-      </c>
-      <c r="O7" s="94"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="103"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="101">
-        <v>48860</v>
-      </c>
-      <c r="C8" s="104">
-        <v>7512475.5060000001</v>
-      </c>
-      <c r="D8" s="104">
-        <v>4694481.5389999999</v>
-      </c>
-      <c r="E8" s="105"/>
-      <c r="G8" s="106" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="107">
-        <v>43956.601909722223</v>
-      </c>
-      <c r="J8" s="104">
-        <v>7512477.8110999996</v>
-      </c>
-      <c r="K8" s="104">
-        <v>4694447.6162999999</v>
-      </c>
-      <c r="L8" s="105">
-        <v>619.85490000000004</v>
-      </c>
-      <c r="M8" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="105">
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="O8" s="94"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="W8" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="X8" s="109">
+      <c r="X8" s="71">
         <f>SUM(X3:X7)</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="98" t="s">
-        <v>44</v>
+      <c r="Y8" s="60" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="101">
-        <v>48859</v>
-      </c>
-      <c r="C9" s="104">
-        <v>7512484.8669999996</v>
-      </c>
-      <c r="D9" s="104">
-        <v>4694469.4610000001</v>
-      </c>
-      <c r="E9" s="105"/>
-      <c r="G9" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="107">
-        <v>43956.605011574073</v>
-      </c>
-      <c r="J9" s="104">
-        <v>7512487.0109999999</v>
-      </c>
-      <c r="K9" s="104">
-        <v>4694450.4741000002</v>
-      </c>
-      <c r="L9" s="105">
-        <v>619.88</v>
-      </c>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105">
-        <v>2.7699999999999999E-2</v>
-      </c>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="101">
-        <v>48858</v>
-      </c>
-      <c r="C10" s="104">
-        <v>7512489.1349999998</v>
-      </c>
-      <c r="D10" s="104">
-        <v>4694460.4380000001</v>
-      </c>
-      <c r="E10" s="105"/>
-      <c r="G10" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="107">
-        <v>43956.639409722222</v>
-      </c>
-      <c r="J10" s="104">
-        <v>7512362.3589000003</v>
-      </c>
-      <c r="K10" s="104">
-        <v>4694374.6951000001</v>
-      </c>
-      <c r="L10" s="105">
-        <v>620.67639999999994</v>
-      </c>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105">
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="O10" s="94"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="116"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="101">
-        <v>48857</v>
-      </c>
-      <c r="C11" s="104">
-        <v>7512492.3049999997</v>
-      </c>
-      <c r="D11" s="104">
-        <v>4694452.8789999997</v>
-      </c>
-      <c r="E11" s="105"/>
-      <c r="G11" s="106" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="107">
-        <v>43956.603726851848</v>
-      </c>
-      <c r="J11" s="104">
-        <v>7512492.3039999995</v>
-      </c>
-      <c r="K11" s="104">
-        <v>4694452.8953</v>
-      </c>
-      <c r="L11" s="105">
-        <v>619.65440000000001</v>
-      </c>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="O11" s="94"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="116"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="101">
-        <v>52515</v>
-      </c>
-      <c r="C12" s="104">
-        <v>7512459.6260000002</v>
-      </c>
-      <c r="D12" s="104">
-        <v>4694429.47</v>
-      </c>
-      <c r="E12" s="105"/>
-      <c r="G12" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="107">
-        <v>43956.612812500003</v>
-      </c>
-      <c r="J12" s="104">
-        <v>7512489.1415999997</v>
-      </c>
-      <c r="K12" s="104">
-        <v>4694460.4349999996</v>
-      </c>
-      <c r="L12" s="105">
-        <v>619.83659999999998</v>
-      </c>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105">
-        <v>1.44E-2</v>
-      </c>
-      <c r="O12" s="94"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="116"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="58"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="101">
-        <v>52516</v>
-      </c>
-      <c r="C13" s="104">
-        <v>7512450.7249999996</v>
-      </c>
-      <c r="D13" s="104">
-        <v>4694423.9850000003</v>
-      </c>
-      <c r="E13" s="105"/>
-      <c r="G13" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="107">
-        <v>43956.613344907404</v>
-      </c>
-      <c r="J13" s="104">
-        <v>7512484.8788000001</v>
-      </c>
-      <c r="K13" s="104">
-        <v>4694469.4627</v>
-      </c>
-      <c r="L13" s="105">
-        <v>619.86389999999994</v>
-      </c>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="O13" s="94"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="58"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="101">
-        <v>52517</v>
-      </c>
-      <c r="C14" s="104">
-        <v>7512447.3109999998</v>
-      </c>
-      <c r="D14" s="104">
-        <v>4694430.0810000002</v>
-      </c>
-      <c r="E14" s="105"/>
-      <c r="G14" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="107">
-        <v>43956.613888888889</v>
-      </c>
-      <c r="J14" s="104">
-        <v>7512475.5053000003</v>
-      </c>
-      <c r="K14" s="104">
-        <v>4694481.5291999998</v>
-      </c>
-      <c r="L14" s="105">
-        <v>619.94889999999998</v>
-      </c>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="O14" s="94"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="58"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="101">
-        <v>52518</v>
-      </c>
-      <c r="C15" s="104">
-        <v>7512443.409</v>
-      </c>
-      <c r="D15" s="104">
-        <v>4694435.8109999998</v>
-      </c>
-      <c r="E15" s="105"/>
-      <c r="G15" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="107">
-        <v>43956.607627314814</v>
-      </c>
-      <c r="J15" s="104">
-        <v>7512429.1140000001</v>
-      </c>
-      <c r="K15" s="104">
-        <v>4694465.3978000004</v>
-      </c>
-      <c r="L15" s="105">
-        <v>619.99120000000005</v>
-      </c>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105">
-        <v>1.41E-2</v>
-      </c>
-      <c r="O15" s="94"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="58"/>
+      <c r="U15">
+        <v>400</v>
+      </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="101">
-        <v>52476</v>
-      </c>
-      <c r="C16" s="104">
-        <v>7512425.7110000001</v>
-      </c>
-      <c r="D16" s="104">
-        <v>4694462.9790000003</v>
-      </c>
-      <c r="E16" s="105"/>
-      <c r="G16" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="107">
-        <v>43956.609027777777</v>
-      </c>
-      <c r="J16" s="104">
-        <v>7512425.7174000004</v>
-      </c>
-      <c r="K16" s="104">
-        <v>4694462.9868999999</v>
-      </c>
-      <c r="L16" s="105">
-        <v>619.995</v>
-      </c>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105">
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="O16" s="94"/>
-    </row>
-    <row r="17" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G17" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="107">
-        <v>43956.606261574074</v>
-      </c>
-      <c r="J17" s="104">
-        <v>7512469.1775000002</v>
-      </c>
-      <c r="K17" s="104">
-        <v>4694476.6213999996</v>
-      </c>
-      <c r="L17" s="105">
-        <v>619.89089999999999</v>
-      </c>
-      <c r="M17" s="105"/>
-      <c r="N17" s="105">
-        <v>1.26E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G18" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="107">
-        <v>43956.606759259259</v>
-      </c>
-      <c r="J18" s="104">
-        <v>7512445.273</v>
-      </c>
-      <c r="K18" s="104">
-        <v>4694471.0614999998</v>
-      </c>
-      <c r="L18" s="105">
-        <v>619.88080000000002</v>
-      </c>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105">
-        <v>1.4800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G19" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="107">
-        <v>43956.607164351852</v>
-      </c>
-      <c r="J19" s="104">
-        <v>7512438.3853000002</v>
-      </c>
-      <c r="K19" s="104">
-        <v>4694469.8422999997</v>
-      </c>
-      <c r="L19" s="105">
-        <v>619.90909999999997</v>
-      </c>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105">
-        <v>1.2699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G20" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="107">
-        <v>43956.611250000002</v>
-      </c>
-      <c r="J20" s="104">
-        <v>7512459.6231000004</v>
-      </c>
-      <c r="K20" s="104">
-        <v>4694429.4824000001</v>
-      </c>
-      <c r="L20" s="105">
-        <v>619.92200000000003</v>
-      </c>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105">
-        <v>4.2299999999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G21" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="107">
-        <v>43956.610833333332</v>
-      </c>
-      <c r="J21" s="104">
-        <v>7512450.7319</v>
-      </c>
-      <c r="K21" s="104">
-        <v>4694423.9844000004</v>
-      </c>
-      <c r="L21" s="105">
-        <v>619.84100000000001</v>
-      </c>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105">
-        <v>1.49E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G22" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="107">
-        <v>43956.610324074078</v>
-      </c>
-      <c r="J22" s="104">
-        <v>7512447.3388999999</v>
-      </c>
-      <c r="K22" s="104">
-        <v>4694430.0873999996</v>
-      </c>
-      <c r="L22" s="105">
-        <v>619.84090000000003</v>
-      </c>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="O22" s="94"/>
-    </row>
-    <row r="23" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G23" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="107">
-        <v>43956.609166666669</v>
-      </c>
-      <c r="J23" s="104">
-        <v>7512443.4074999997</v>
-      </c>
-      <c r="K23" s="104">
-        <v>4694435.7982000001</v>
-      </c>
-      <c r="L23" s="105">
-        <v>620.04679999999996</v>
-      </c>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105">
-        <v>1.5699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G24" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="107">
-        <v>43956.600925925923</v>
-      </c>
-      <c r="J24" s="104">
-        <v>7512443.6129999999</v>
-      </c>
-      <c r="K24" s="104">
-        <v>4694436.2117999997</v>
-      </c>
-      <c r="L24" s="105">
-        <v>619.9914</v>
-      </c>
-      <c r="M24" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="N24" s="105">
-        <v>1.38E-2</v>
-      </c>
-      <c r="O24" s="94"/>
-    </row>
-    <row r="25" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G25" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="107">
-        <v>43956.602847222224</v>
-      </c>
-      <c r="J25" s="104">
-        <v>7512486.9254000001</v>
-      </c>
-      <c r="K25" s="104">
-        <v>4694450.6396000003</v>
-      </c>
-      <c r="L25" s="105">
-        <v>619.88019999999995</v>
-      </c>
-      <c r="M25" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="105">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="O25" s="94"/>
-    </row>
-    <row r="26" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="107">
-        <v>43956.623217592591</v>
-      </c>
-      <c r="J26" s="104">
-        <v>7512443.2279000003</v>
-      </c>
-      <c r="K26" s="104">
-        <v>4694436.0679000001</v>
-      </c>
-      <c r="L26" s="105">
-        <v>620.0095</v>
-      </c>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105">
-        <v>3.3500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G27" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="107">
-        <v>43956.623298611114</v>
-      </c>
-      <c r="J27" s="104">
-        <v>7512487.0118000004</v>
-      </c>
-      <c r="K27" s="104">
-        <v>4694450.4642000003</v>
-      </c>
-      <c r="L27" s="105">
-        <v>619.84889999999996</v>
-      </c>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105">
-        <v>2.4199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G28" s="106" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="107">
-        <v>43956.663275462961</v>
-      </c>
-      <c r="J28" s="104">
-        <v>7512362.3524000002</v>
-      </c>
-      <c r="K28" s="104">
-        <v>4694374.6739999996</v>
-      </c>
-      <c r="L28" s="105">
-        <v>620.70339999999999</v>
-      </c>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105">
-        <v>2.52E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G29" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="107">
-        <v>43956.613483796296</v>
-      </c>
-      <c r="J29" s="104">
-        <v>7503168.9298</v>
-      </c>
-      <c r="K29" s="104">
-        <v>4699391.6086999997</v>
-      </c>
-      <c r="L29" s="105">
-        <v>628.02599999999995</v>
-      </c>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105">
-        <v>0</v>
-      </c>
-      <c r="O29" s="94"/>
-    </row>
-    <row r="30" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G30" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="107">
-        <v>43956.608854166669</v>
-      </c>
-      <c r="J30" s="104">
-        <v>7512493.7037000004</v>
-      </c>
-      <c r="K30" s="104">
-        <v>4694456.9149000002</v>
-      </c>
-      <c r="L30" s="105">
-        <v>615.46590000000003</v>
-      </c>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G31" s="112"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="58"/>
+      <c r="U16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="U17">
+        <f>U16/U15</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G18" s="68"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G19" s="68"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G20" s="68"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G21" s="68"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G22" s="68"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="58"/>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="T22">
+        <f>1/250</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G23" s="68"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="R23">
+        <f>R21/R22</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G24" s="68"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="58"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G25" s="68"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="58"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G26" s="68"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G27" s="68"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G28" s="68"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G29" s="68"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="58"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G30" s="68"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G31" s="74"/>
     </row>
     <row r="33" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3632,5 +3137,6 @@
     <mergeCell ref="X2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cd/7---Koordinatat-e-pikave-për-parcelë.xlsx
+++ b/cd/7---Koordinatat-e-pikave-për-parcelë.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="dorzim" sheetId="1" r:id="rId1"/>
     <sheet name="src" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">dorzim!$A$1:$J$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">dorzim!$A$1:$J$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t>Nr</t>
   </si>
@@ -149,6 +149,69 @@
   </si>
   <si>
     <t>m²</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>FE18-PM</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>RTCM-Ref 0097</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>RTCM-Ref 0109</t>
+  </si>
+  <si>
+    <t>RTCM-Ref 0116</t>
+  </si>
+  <si>
+    <t>SI-1</t>
+  </si>
+  <si>
+    <t>SI-758613</t>
+  </si>
+  <si>
+    <t>SI-P1</t>
+  </si>
+  <si>
+    <t>SI-P2</t>
+  </si>
+  <si>
+    <t>SII-1</t>
+  </si>
+  <si>
+    <t>SII-758613</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>SI-2</t>
+  </si>
+  <si>
+    <t>NIVELI1</t>
+  </si>
+  <si>
+    <t>NIVELI2</t>
+  </si>
+  <si>
+    <t>3583-6</t>
+  </si>
+  <si>
+    <t>3583-7</t>
   </si>
 </sst>
 </file>
@@ -610,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -679,14 +742,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,8 +764,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,6 +822,85 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,15 +919,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -814,66 +937,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,16 +946,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1531,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,106 +1614,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="98"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -1675,590 +1740,495 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C15" s="42">
-        <v>22086</v>
-      </c>
-      <c r="D15" s="46">
-        <v>7512362.3600000003</v>
-      </c>
-      <c r="E15" s="46">
-        <v>4694374.68</v>
-      </c>
-      <c r="F15" s="47">
-        <v>620.68934999999999</v>
-      </c>
-      <c r="G15" s="43">
+      <c r="C15" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="42">
+        <v>7507482.6978000002</v>
+      </c>
+      <c r="E15" s="42">
+        <v>4692048.4036999997</v>
+      </c>
+      <c r="F15" s="43">
+        <v>669.92190000000005</v>
+      </c>
+      <c r="G15" s="39">
         <v>11</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C16" s="38">
+      <c r="C16" s="3">
+        <v>739100</v>
+      </c>
+      <c r="D16" s="46">
+        <v>7501839.8940000003</v>
+      </c>
+      <c r="E16" s="46">
+        <v>4691809.8959999997</v>
+      </c>
+      <c r="F16" s="47">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>758612</v>
+      </c>
+      <c r="D17" s="46">
+        <v>7501856.1160000004</v>
+      </c>
+      <c r="E17" s="46">
+        <v>4691786.4630000005</v>
+      </c>
+      <c r="F17" s="47">
+        <v>814.28599999999994</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <v>758613</v>
+      </c>
+      <c r="D18" s="46">
+        <v>7501803.7170000002</v>
+      </c>
+      <c r="E18" s="46">
+        <v>4691784.8509999998</v>
+      </c>
+      <c r="F18" s="47">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <v>758614</v>
+      </c>
+      <c r="D19" s="46">
+        <v>7501820.7929999996</v>
+      </c>
+      <c r="E19" s="46">
+        <v>4691760.1849999996</v>
+      </c>
+      <c r="F19" s="47">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C20" s="34">
+        <v>2</v>
+      </c>
+      <c r="D20" s="44">
+        <v>7501807.8399999999</v>
+      </c>
+      <c r="E20" s="44">
+        <v>4691787.7050000001</v>
+      </c>
+      <c r="F20" s="45">
+        <v>829.41399999999999</v>
+      </c>
+      <c r="G20" s="35">
+        <v>2</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="114">
+        <v>1</v>
+      </c>
+      <c r="D21" s="115">
+        <v>7501824.8183000004</v>
+      </c>
+      <c r="E21" s="115">
+        <v>4691763.1796000004</v>
+      </c>
+      <c r="F21" s="116">
+        <v>820.32</v>
+      </c>
+      <c r="G21" s="117">
+        <v>2</v>
+      </c>
+      <c r="H21" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="119" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="78"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="48">
-        <v>7512443.2367000002</v>
-      </c>
-      <c r="E16" s="48">
-        <v>4694436.0755000003</v>
-      </c>
-      <c r="F16" s="49">
-        <v>619.98699999999997</v>
-      </c>
-      <c r="G16" s="39">
-        <v>2</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C17" s="38">
-        <v>4</v>
-      </c>
-      <c r="D17" s="48">
-        <v>7512455.5829999996</v>
-      </c>
-      <c r="E17" s="48">
-        <v>4694440.4879999999</v>
-      </c>
-      <c r="F17" s="49">
-        <v>620.06299999999999</v>
-      </c>
-      <c r="G17" s="39">
-        <v>2</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C18" s="38">
-        <v>5</v>
-      </c>
-      <c r="D18" s="48">
-        <v>7512477.8109999998</v>
-      </c>
-      <c r="E18" s="48">
-        <v>4694447.6160000004</v>
-      </c>
-      <c r="F18" s="49">
-        <v>619.85500000000002</v>
-      </c>
-      <c r="G18" s="39">
-        <v>2</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C19" s="38">
-        <v>6</v>
-      </c>
-      <c r="D19" s="48">
-        <v>7512487.0047000004</v>
-      </c>
-      <c r="E19" s="48">
-        <v>4694450.4566000002</v>
-      </c>
-      <c r="F19" s="49">
-        <v>619.88</v>
-      </c>
-      <c r="G19" s="39">
-        <v>2</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C20" s="38">
-        <v>48857</v>
-      </c>
-      <c r="D20" s="48">
-        <v>7512492.3049999997</v>
-      </c>
-      <c r="E20" s="48">
-        <v>4694452.8789999997</v>
-      </c>
-      <c r="F20" s="49">
-        <v>619.654</v>
-      </c>
-      <c r="G20" s="39">
-        <v>2</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C21" s="3">
-        <v>48858</v>
-      </c>
-      <c r="D21" s="50">
-        <v>7512489.1349999998</v>
-      </c>
-      <c r="E21" s="50">
-        <v>4694460.4380000001</v>
-      </c>
-      <c r="F21" s="51">
-        <v>619.83699999999999</v>
-      </c>
-      <c r="G21" s="4">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C22" s="3">
-        <v>48859</v>
-      </c>
-      <c r="D22" s="50">
-        <v>7512484.8669999996</v>
-      </c>
-      <c r="E22" s="50">
-        <v>4694469.4610000001</v>
-      </c>
-      <c r="F22" s="51">
-        <v>619.86400000000003</v>
-      </c>
-      <c r="G22" s="4">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C23" s="3">
-        <v>48860</v>
-      </c>
-      <c r="D23" s="50">
-        <v>7512475.5060000001</v>
-      </c>
-      <c r="E23" s="50">
-        <v>4694481.5389999999</v>
-      </c>
-      <c r="F23" s="51">
-        <v>619.94899999999996</v>
-      </c>
-      <c r="G23" s="4">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C24" s="3">
-        <v>52475</v>
-      </c>
-      <c r="D24" s="50">
-        <v>7512429.0959999999</v>
-      </c>
-      <c r="E24" s="50">
-        <v>4694465.3810000001</v>
-      </c>
-      <c r="F24" s="51">
-        <v>619.99099999999999</v>
-      </c>
-      <c r="G24" s="4">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C25" s="3">
-        <v>52476</v>
-      </c>
-      <c r="D25" s="50">
-        <v>7512425.7110000001</v>
-      </c>
-      <c r="E25" s="50">
-        <v>4694462.9790000003</v>
-      </c>
-      <c r="F25" s="51">
-        <v>619.995</v>
-      </c>
-      <c r="G25" s="4">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C26" s="3">
-        <v>52512</v>
-      </c>
-      <c r="D26" s="50">
-        <v>7512469.1730000004</v>
-      </c>
-      <c r="E26" s="50">
-        <v>4694476.6260000002</v>
-      </c>
-      <c r="F26" s="51">
-        <v>619.89099999999996</v>
-      </c>
-      <c r="G26" s="4">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="C27" s="3">
-        <v>52513</v>
-      </c>
-      <c r="D27" s="50">
-        <v>7512445.2570000002</v>
-      </c>
-      <c r="E27" s="50">
-        <v>4694471.0580000002</v>
-      </c>
-      <c r="F27" s="51">
-        <v>619.88099999999997</v>
-      </c>
-      <c r="G27" s="4">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F25" s="90"/>
+      <c r="G25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12">
+        <v>7501824.8262999998</v>
+      </c>
+      <c r="D26" s="12">
+        <v>4691763.1812000005</v>
+      </c>
+      <c r="E26" s="12">
+        <v>820.3075</v>
+      </c>
+      <c r="F26" s="91"/>
+      <c r="G26" s="74">
+        <f>C26-C27</f>
+        <v>-6.9000003859400749E-3</v>
+      </c>
+      <c r="H26" s="74">
+        <f>D26-D27</f>
+        <v>-1.4999993145465851E-3</v>
+      </c>
+      <c r="I26" s="94">
+        <f>SQRT(G26^2+H26^2)</f>
+        <v>7.0611616090848258E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="14">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12">
+        <v>7501824.8332000002</v>
+      </c>
+      <c r="D27" s="12">
+        <v>4691763.1826999998</v>
+      </c>
+      <c r="E27" s="12">
+        <v>820.33169999999996</v>
+      </c>
+      <c r="F27" s="91"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="96"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="C28" s="3">
-        <v>52514</v>
-      </c>
-      <c r="D28" s="50">
-        <v>7512438.3779999996</v>
-      </c>
-      <c r="E28" s="50">
-        <v>4694469.8569999998</v>
-      </c>
-      <c r="F28" s="51">
-        <v>619.90899999999999</v>
-      </c>
-      <c r="G28" s="4">
-        <v>2</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="C29" s="3">
-        <v>52515</v>
-      </c>
-      <c r="D29" s="50">
-        <v>7512459.6260000002</v>
-      </c>
-      <c r="E29" s="50">
-        <v>4694429.47</v>
-      </c>
-      <c r="F29" s="51">
-        <v>619.92200000000003</v>
-      </c>
-      <c r="G29" s="4">
-        <v>2</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="14">
+        <v>758612</v>
+      </c>
+      <c r="C28" s="15">
+        <v>7501856.102</v>
+      </c>
+      <c r="D28" s="15">
+        <v>4691786.4642000003</v>
+      </c>
+      <c r="E28" s="16">
+        <v>814.26589999999999</v>
+      </c>
+      <c r="F28" s="91"/>
+      <c r="G28" s="74">
+        <f>C28-C29</f>
+        <v>1.3399999588727951E-2</v>
+      </c>
+      <c r="H28" s="74">
+        <f>D28-D29</f>
+        <v>5.4000001400709152E-3</v>
+      </c>
+      <c r="I28" s="94">
+        <f>SQRT(G28^2+H28^2)</f>
+        <v>1.4447144717579151E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="18">
+        <v>758612</v>
+      </c>
+      <c r="C29" s="19">
+        <v>7501856.0886000004</v>
+      </c>
+      <c r="D29" s="19">
+        <v>4691786.4588000001</v>
+      </c>
+      <c r="E29" s="20">
+        <v>814.30619999999999</v>
+      </c>
+      <c r="F29" s="92"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="95"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="C30" s="3">
-        <v>52516</v>
-      </c>
-      <c r="D30" s="50">
-        <v>7512450.7249999996</v>
-      </c>
-      <c r="E30" s="50">
-        <v>4694423.9850000003</v>
-      </c>
-      <c r="F30" s="51">
-        <v>619.84100000000001</v>
-      </c>
-      <c r="G30" s="4">
-        <v>2</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="C31" s="3">
-        <v>52517</v>
-      </c>
-      <c r="D31" s="50">
-        <v>7512447.3109999998</v>
-      </c>
-      <c r="E31" s="50">
-        <v>4694430.0810000002</v>
-      </c>
-      <c r="F31" s="51">
-        <v>619.84100000000001</v>
-      </c>
-      <c r="G31" s="4">
-        <v>2</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
-      <c r="C32" s="34">
-        <v>52518</v>
-      </c>
-      <c r="D32" s="52">
-        <v>7512443.409</v>
-      </c>
-      <c r="E32" s="52">
-        <v>4694435.8109999998</v>
-      </c>
-      <c r="F32" s="53">
-        <v>620.04700000000003</v>
-      </c>
-      <c r="G32" s="35">
-        <v>2</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="84"/>
+    <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="7" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="G39" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="H39" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="104"/>
-      <c r="G36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="11">
-        <v>3</v>
-      </c>
-      <c r="C37" s="12">
-        <v>7512443.2230000002</v>
-      </c>
-      <c r="D37" s="12">
-        <v>4694436.0767999999</v>
-      </c>
-      <c r="E37" s="12">
-        <v>619.98699999999997</v>
-      </c>
-      <c r="F37" s="105"/>
-      <c r="G37" s="91">
-        <f>C37-C38</f>
-        <v>-4.9000000581145287E-3</v>
-      </c>
-      <c r="H37" s="91">
-        <f>D37-D38</f>
-        <v>8.8999997824430466E-3</v>
-      </c>
-      <c r="I37" s="108">
-        <f>SQRT(G37^2+H37^2)</f>
-        <v>1.0159724243157817E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="14">
-        <v>3</v>
-      </c>
-      <c r="C38" s="12">
-        <v>7512443.2279000003</v>
-      </c>
-      <c r="D38" s="12">
-        <v>4694436.0679000001</v>
-      </c>
-      <c r="E38" s="12">
-        <v>620.0095</v>
-      </c>
-      <c r="F38" s="105"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="110"/>
-    </row>
-    <row r="39" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="14">
-        <v>6</v>
-      </c>
-      <c r="C39" s="15">
-        <v>7512487.0109999999</v>
-      </c>
-      <c r="D39" s="15">
-        <v>4694450.4741000002</v>
-      </c>
-      <c r="E39" s="16">
-        <v>619.88</v>
-      </c>
-      <c r="F39" s="105"/>
-      <c r="G39" s="91">
-        <f>C39-C40</f>
-        <v>-8.0000050365924835E-4</v>
-      </c>
-      <c r="H39" s="91">
-        <f>D39-D40</f>
-        <v>9.8999999463558197E-3</v>
-      </c>
-      <c r="I39" s="108">
-        <f>SQRT(G39^2+H39^2)</f>
-        <v>9.9322706237647534E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="18">
-        <v>6</v>
-      </c>
-      <c r="C40" s="19">
-        <v>7512487.0118000004</v>
-      </c>
-      <c r="D40" s="19">
-        <v>4694450.4642000003</v>
-      </c>
-      <c r="E40" s="20">
-        <v>619.84889999999996</v>
-      </c>
-      <c r="F40" s="106"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="109"/>
-    </row>
-    <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="24">
+        <v>1</v>
+      </c>
+      <c r="F40" s="48">
+        <f>(C26+C27)/2</f>
+        <v>7501824.8297499996</v>
+      </c>
+      <c r="G40" s="48">
+        <f>(D26+D27)/2</f>
+        <v>4691763.1819500001</v>
+      </c>
+      <c r="H40" s="49">
+        <f>(E26+E27)/2</f>
+        <v>820.31960000000004</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="25">
+        <v>758612</v>
+      </c>
+      <c r="F41" s="50">
+        <f>(C28+C29)/2</f>
+        <v>7501856.0953000002</v>
+      </c>
+      <c r="G41" s="50">
+        <f>(D28+D29)/2</f>
+        <v>4691786.4615000002</v>
+      </c>
+      <c r="H41" s="51">
+        <f>(E28+E29)/2</f>
+        <v>814.28604999999993</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
@@ -2272,7 +2242,7 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2284,83 +2254,57 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="84"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="24">
-        <v>3</v>
-      </c>
-      <c r="F51" s="54">
-        <f>(C37+C38)/2</f>
-        <v>7512443.2254499998</v>
-      </c>
-      <c r="G51" s="54">
-        <f>(D37+D38)/2</f>
-        <v>4694436.07235</v>
-      </c>
-      <c r="H51" s="55">
-        <f>(E37+E38)/2</f>
-        <v>619.99824999999998</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="98"/>
+      <c r="J50" s="101"/>
+    </row>
+    <row r="51" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="102"/>
+    </row>
+    <row r="52" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="25">
-        <v>6</v>
-      </c>
-      <c r="F52" s="56">
-        <f>(C39+C40)/2</f>
-        <v>7512487.0114000002</v>
-      </c>
-      <c r="G52" s="56">
-        <f>(D39+D40)/2</f>
-        <v>4694450.4691500003</v>
-      </c>
-      <c r="H52" s="57">
-        <f>(E39+E40)/2</f>
-        <v>619.86445000000003</v>
-      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
@@ -2388,163 +2332,25 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="77"/>
-      <c r="J61" s="80"/>
-    </row>
-    <row r="62" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="88"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="81"/>
-    </row>
-    <row r="63" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="C8:I10"/>
     <mergeCell ref="A3:J6"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H26:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2554,478 +2360,675 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Y33"/>
+  <dimension ref="B2:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="G2" s="111" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="G2" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="112" t="s">
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="W2" s="59" t="s">
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="113" t="s">
+      <c r="X3" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="113"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
+      <c r="Y3" s="111"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="57">
+        <v>739100</v>
+      </c>
+      <c r="C4" s="60">
+        <v>7501839.8940000003</v>
+      </c>
+      <c r="D4" s="60">
+        <v>4691809.8959999997</v>
+      </c>
+      <c r="E4" s="61">
         <v>0</v>
       </c>
-      <c r="C3" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="60" t="s">
+      <c r="G4" s="62">
+        <v>1</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="63">
+        <v>44020.385416666664</v>
+      </c>
+      <c r="J4" s="60">
+        <v>7501824.818</v>
+      </c>
+      <c r="K4" s="60">
+        <v>4691763.18</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="61"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="57">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="60">
+        <v>7501807.8399999999</v>
+      </c>
+      <c r="R4" s="60">
+        <v>4691787.7050000001</v>
+      </c>
+      <c r="S4" s="60">
+        <v>829.41399999999999</v>
+      </c>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="W4" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="58">
+        <v>1137</v>
+      </c>
+      <c r="Y4" s="59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="57">
+        <v>758612</v>
+      </c>
+      <c r="C5" s="60">
+        <v>7501856.1160000004</v>
+      </c>
+      <c r="D5" s="60">
+        <v>4691786.4630000005</v>
+      </c>
+      <c r="E5" s="61">
+        <v>814.28599999999994</v>
+      </c>
+      <c r="G5" s="62">
+        <v>758612</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="63">
+        <v>44020.385798611111</v>
+      </c>
+      <c r="J5" s="60">
+        <v>7501856.1160000004</v>
+      </c>
+      <c r="K5" s="60">
+        <v>4691786.4630000005</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="61"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="60">
+        <v>7501824.8183000004</v>
+      </c>
+      <c r="R5" s="60">
+        <v>4691763.1796000004</v>
+      </c>
+      <c r="S5" s="60">
+        <v>820.32</v>
+      </c>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="W5" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" s="58">
+        <v>150</v>
+      </c>
+      <c r="Y5" s="59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="57">
+        <v>758613</v>
+      </c>
+      <c r="C6" s="60">
+        <v>7501803.7170000002</v>
+      </c>
+      <c r="D6" s="60">
+        <v>4691784.8509999998</v>
+      </c>
+      <c r="E6" s="61">
         <v>0</v>
       </c>
-      <c r="H3" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59" t="s">
+      <c r="G6" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="63">
+        <v>44020.450092592589</v>
+      </c>
+      <c r="J6" s="60">
+        <v>7507482.6978000002</v>
+      </c>
+      <c r="K6" s="60">
+        <v>4692048.4036999997</v>
+      </c>
+      <c r="L6" s="61">
+        <v>669.92190000000005</v>
+      </c>
+      <c r="M6" s="61">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="N6" s="61"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="W6" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="65">
+        <f>SUM(X4:X5)</f>
+        <v>1287</v>
+      </c>
+      <c r="Y6" s="54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="57">
+        <v>758614</v>
+      </c>
+      <c r="C7" s="60">
+        <v>7501820.7929999996</v>
+      </c>
+      <c r="D7" s="60">
+        <v>4691760.1849999996</v>
+      </c>
+      <c r="E7" s="61">
         <v>0</v>
       </c>
-      <c r="Q3" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" s="63"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="65"/>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="63">
-        <v>739100</v>
-      </c>
-      <c r="C4" s="66">
-        <v>7501839.8940000003</v>
-      </c>
-      <c r="D4" s="66">
-        <v>4691809.8959999997</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="65"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="63">
-        <v>758612</v>
-      </c>
-      <c r="C5" s="66">
-        <v>7501856.1160000004</v>
-      </c>
-      <c r="D5" s="66">
-        <v>4691786.4630000005</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="65"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="63">
-        <v>758613</v>
-      </c>
-      <c r="C6" s="66">
-        <v>7501803.7170000002</v>
-      </c>
-      <c r="D6" s="66">
-        <v>4691784.8509999998</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="65"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="63">
-        <v>758614</v>
-      </c>
-      <c r="C7" s="66">
-        <v>7501820.7929999996</v>
-      </c>
-      <c r="D7" s="66">
-        <v>4691760.1849999996</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="65"/>
+      <c r="G7" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="63">
+        <v>44020.386018518519</v>
+      </c>
+      <c r="J7" s="60">
+        <v>7501847.4420999996</v>
+      </c>
+      <c r="K7" s="60">
+        <v>4691778.0603999998</v>
+      </c>
+      <c r="L7" s="61">
+        <v>812.41399999999999</v>
+      </c>
+      <c r="M7" s="61">
+        <v>0</v>
+      </c>
+      <c r="N7" s="61"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="W8" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="X8" s="71">
-        <f>SUM(X3:X7)</f>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="G8" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="63">
+        <v>44020.415879629632</v>
+      </c>
+      <c r="J8" s="60">
+        <v>7501856.4957999997</v>
+      </c>
+      <c r="K8" s="60">
+        <v>4691786.6679999996</v>
+      </c>
+      <c r="L8" s="61">
+        <v>811.84389999999996</v>
+      </c>
+      <c r="M8" s="61">
         <v>0</v>
       </c>
-      <c r="Y8" s="60" t="s">
-        <v>36</v>
-      </c>
+      <c r="N8" s="61"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="G9" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="63">
+        <v>44020.450011574074</v>
+      </c>
+      <c r="J9" s="60">
+        <v>7507483.2896999996</v>
+      </c>
+      <c r="K9" s="60">
+        <v>4692048.6731000002</v>
+      </c>
+      <c r="L9" s="61">
+        <v>668.39290000000005</v>
+      </c>
+      <c r="M9" s="61">
+        <v>0</v>
+      </c>
+      <c r="N9" s="61"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="116"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+      <c r="G10" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="63">
+        <v>44020.389062499999</v>
+      </c>
+      <c r="J10" s="60">
+        <v>7501824.8262999998</v>
+      </c>
+      <c r="K10" s="60">
+        <v>4691763.1812000005</v>
+      </c>
+      <c r="L10" s="61">
+        <v>820.3075</v>
+      </c>
+      <c r="M10" s="61">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="N10" s="61"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="116"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="G11" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="63">
+        <v>44020.387499999997</v>
+      </c>
+      <c r="J11" s="60">
+        <v>7501856.102</v>
+      </c>
+      <c r="K11" s="60">
+        <v>4691786.4642000003</v>
+      </c>
+      <c r="L11" s="61">
+        <v>814.26589999999999</v>
+      </c>
+      <c r="M11" s="61">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="N11" s="61"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="116"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="58"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="G12" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="63">
+        <v>44020.390682870369</v>
+      </c>
+      <c r="J12" s="60">
+        <v>7501846.3565999996</v>
+      </c>
+      <c r="K12" s="60">
+        <v>4691777.9852999998</v>
+      </c>
+      <c r="L12" s="61">
+        <v>816.17750000000001</v>
+      </c>
+      <c r="M12" s="61">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N12" s="61"/>
+      <c r="O12" s="52"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="58"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="G13" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="63">
+        <v>44020.391828703701</v>
+      </c>
+      <c r="J13" s="60">
+        <v>7501809.2586000003</v>
+      </c>
+      <c r="K13" s="60">
+        <v>4691739.8887</v>
+      </c>
+      <c r="L13" s="61">
+        <v>823.47029999999995</v>
+      </c>
+      <c r="M13" s="61">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="N13" s="61"/>
+      <c r="O13" s="52"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="58"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="G14" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="63">
+        <v>44020.420520833337</v>
+      </c>
+      <c r="J14" s="60">
+        <v>7501824.8332000002</v>
+      </c>
+      <c r="K14" s="60">
+        <v>4691763.1826999998</v>
+      </c>
+      <c r="L14" s="61">
+        <v>820.33169999999996</v>
+      </c>
+      <c r="M14" s="61">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="N14" s="61"/>
+      <c r="O14" s="52"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="58"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="G15" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="63">
+        <v>44020.417928240742</v>
+      </c>
+      <c r="J15" s="60">
+        <v>7501856.0886000004</v>
+      </c>
+      <c r="K15" s="60">
+        <v>4691786.4588000001</v>
+      </c>
+      <c r="L15" s="61">
+        <v>814.30619999999999</v>
+      </c>
+      <c r="M15" s="61">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="N15" s="61"/>
+      <c r="O15" s="52"/>
       <c r="U15">
         <v>400</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="58"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="52"/>
       <c r="U16">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
       <c r="U17">
         <f>U16/U15</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G18" s="68"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G19" s="68"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G20" s="68"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G21" s="68"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G18" s="62"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G19" s="62"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G20" s="62"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G21" s="62"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
       <c r="R21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G22" s="68"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="58"/>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G22" s="62"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="52"/>
       <c r="R22">
         <v>0.25</v>
       </c>
@@ -3034,107 +3037,327 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G23" s="68"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G23" s="62"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
       <c r="R23">
         <f>R21/R22</f>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G24" s="68"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="58"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G25" s="68"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="58"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G26" s="68"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G27" s="68"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G28" s="68"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G29" s="68"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="58"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G30" s="68"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G31" s="74"/>
-    </row>
-    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G24" s="62"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="52"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G25" s="62"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="52"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G26" s="62"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G27" s="62"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G28" s="62"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G29" s="62"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="52"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G30" s="62"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G31" s="68"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="R32" t="s">
+        <v>50</v>
+      </c>
+      <c r="S32">
+        <v>7501846.3569999998</v>
+      </c>
+      <c r="T32">
+        <v>4691777.9850000003</v>
+      </c>
+      <c r="U32">
+        <v>816.178</v>
+      </c>
+      <c r="W32">
+        <v>816.178</v>
+      </c>
+      <c r="X32" s="112">
+        <v>25568</v>
+      </c>
+      <c r="Y32" s="113">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33">
+        <v>7501856.102</v>
+      </c>
+      <c r="I33">
+        <v>4691786.4642000003</v>
+      </c>
+      <c r="J33" s="69">
+        <v>814.26589999999999</v>
+      </c>
+      <c r="M33" s="69">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="N33" s="69"/>
+      <c r="R33" t="s">
+        <v>51</v>
+      </c>
+      <c r="S33">
+        <v>7501809.2589999996</v>
+      </c>
+      <c r="T33">
+        <v>4691739.8890000004</v>
+      </c>
+      <c r="U33">
+        <v>823.47</v>
+      </c>
+      <c r="W33">
+        <v>823.47</v>
+      </c>
+      <c r="X33" s="112">
+        <v>25568</v>
+      </c>
+      <c r="Y33" s="113">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34">
+        <v>7501856.0886000004</v>
+      </c>
+      <c r="I34">
+        <v>4691786.4588000001</v>
+      </c>
+      <c r="J34">
+        <v>814.30619999999999</v>
+      </c>
+      <c r="M34">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>7501807.8399999999</v>
+      </c>
+      <c r="T34">
+        <v>4691787.7050000001</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" s="112">
+        <v>25568</v>
+      </c>
+      <c r="Y34" s="113">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35">
+        <v>7501824.8262999998</v>
+      </c>
+      <c r="I35">
+        <v>4691763.1812000005</v>
+      </c>
+      <c r="J35">
+        <v>820.3075</v>
+      </c>
+      <c r="R35" t="s">
+        <v>52</v>
+      </c>
+      <c r="S35">
+        <v>7501826.2580000004</v>
+      </c>
+      <c r="T35">
+        <v>4691761.3210000005</v>
+      </c>
+      <c r="U35">
+        <v>819.76400000000001</v>
+      </c>
+      <c r="W35">
+        <v>819.76400000000001</v>
+      </c>
+      <c r="X35" s="112">
+        <v>44020</v>
+      </c>
+      <c r="Y35" s="113">
+        <v>0.44290509259259259</v>
+      </c>
+    </row>
+    <row r="36" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36">
+        <v>7501824.8332000002</v>
+      </c>
+      <c r="I36">
+        <v>4691763.1826999998</v>
+      </c>
+      <c r="J36">
+        <v>820.33169999999996</v>
+      </c>
+      <c r="R36" t="s">
+        <v>53</v>
+      </c>
+      <c r="S36">
+        <v>7501807.8320000004</v>
+      </c>
+      <c r="T36">
+        <v>4691787.7120000003</v>
+      </c>
+      <c r="U36">
+        <v>829.41399999999999</v>
+      </c>
+      <c r="W36">
+        <v>829.41399999999999</v>
+      </c>
+      <c r="X36" s="112">
+        <v>44020</v>
+      </c>
+      <c r="Y36" s="113">
+        <v>0.44855324074074071</v>
+      </c>
+    </row>
+    <row r="37" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>54</v>
+      </c>
+      <c r="S37">
+        <v>7501832.5669999998</v>
+      </c>
+      <c r="T37">
+        <v>4691794.21</v>
+      </c>
+      <c r="U37">
+        <v>822.95799999999997</v>
+      </c>
+      <c r="W37">
+        <v>822.95799999999997</v>
+      </c>
+      <c r="X37" s="112">
+        <v>44020</v>
+      </c>
+      <c r="Y37" s="113">
+        <v>0.45236111111111116</v>
+      </c>
+    </row>
+    <row r="38" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38">
+        <v>7501845.0360000003</v>
+      </c>
+      <c r="T38">
+        <v>4691778.193</v>
+      </c>
+      <c r="U38">
+        <v>817.03700000000003</v>
+      </c>
+      <c r="W38">
+        <v>817.03700000000003</v>
+      </c>
+      <c r="X38" s="112">
+        <v>44020</v>
+      </c>
+      <c r="Y38" s="113">
+        <v>0.45324074074074078</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="P2:U2"/>
-    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/cd/7---Koordinatat-e-pikave-për-parcelë.xlsx
+++ b/cd/7---Koordinatat-e-pikave-për-parcelë.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>Nr</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>3583-7</t>
+  </si>
+  <si>
+    <t>SEAD PRUSHI</t>
   </si>
 </sst>
 </file>
@@ -832,120 +835,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -957,6 +846,120 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,7 +1156,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Zona Kadastrale: Talinoc i Jerlive</a:t>
+            <a:t>Zona Kadastrale: Jezerc</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1228,7 +1231,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>: 00231-0</a:t>
+            <a:t>: 03583-2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1598,13 +1601,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
@@ -1614,106 +1617,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
     </row>
     <row r="2" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="101"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="104"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="107"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -1878,25 +1881,25 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="114">
+      <c r="C21" s="76">
         <v>1</v>
       </c>
-      <c r="D21" s="115">
+      <c r="D21" s="77">
         <v>7501824.8183000004</v>
       </c>
-      <c r="E21" s="115">
+      <c r="E21" s="77">
         <v>4691763.1796000004</v>
       </c>
-      <c r="F21" s="116">
+      <c r="F21" s="78">
         <v>820.32</v>
       </c>
-      <c r="G21" s="117">
+      <c r="G21" s="79">
         <v>2</v>
       </c>
-      <c r="H21" s="118" t="s">
+      <c r="H21" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="119" t="s">
+      <c r="I21" s="81" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1907,17 +1910,17 @@
       <c r="A23" s="5"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="78"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -1935,7 +1938,7 @@
       <c r="E25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="90"/>
+      <c r="F25" s="110"/>
       <c r="G25" s="8" t="s">
         <v>14</v>
       </c>
@@ -1962,16 +1965,16 @@
       <c r="E26" s="12">
         <v>820.3075</v>
       </c>
-      <c r="F26" s="91"/>
-      <c r="G26" s="74">
+      <c r="F26" s="111"/>
+      <c r="G26" s="97">
         <f>C26-C27</f>
         <v>-6.9000003859400749E-3</v>
       </c>
-      <c r="H26" s="74">
+      <c r="H26" s="97">
         <f>D26-D27</f>
         <v>-1.4999993145465851E-3</v>
       </c>
-      <c r="I26" s="94">
+      <c r="I26" s="114">
         <f>SQRT(G26^2+H26^2)</f>
         <v>7.0611616090848258E-3</v>
       </c>
@@ -1992,10 +1995,10 @@
       <c r="E27" s="12">
         <v>820.33169999999996</v>
       </c>
-      <c r="F27" s="91"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="96"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="116"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
@@ -2013,16 +2016,16 @@
       <c r="E28" s="16">
         <v>814.26589999999999</v>
       </c>
-      <c r="F28" s="91"/>
-      <c r="G28" s="74">
+      <c r="F28" s="111"/>
+      <c r="G28" s="97">
         <f>C28-C29</f>
         <v>1.3399999588727951E-2</v>
       </c>
-      <c r="H28" s="74">
+      <c r="H28" s="97">
         <f>D28-D29</f>
         <v>5.4000001400709152E-3</v>
       </c>
-      <c r="I28" s="94">
+      <c r="I28" s="114">
         <f>SQRT(G28^2+H28^2)</f>
         <v>1.4447144717579151E-2</v>
       </c>
@@ -2043,10 +2046,10 @@
       <c r="E29" s="20">
         <v>814.30619999999999</v>
       </c>
-      <c r="F29" s="92"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="95"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="115"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
@@ -2095,12 +2098,12 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="76" t="s">
+      <c r="E38" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="78"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="90"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
@@ -2273,28 +2276,32 @@
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="97" t="s">
+      <c r="E50" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="91"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="98"/>
-      <c r="J50" s="101"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="86"/>
     </row>
     <row r="51" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="105" t="s">
+      <c r="A51" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="102"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="95">
+        <v>152</v>
+      </c>
+      <c r="F51" s="95"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="87"/>
     </row>
     <row r="52" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
@@ -2334,12 +2341,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:G51"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="C8:I10"/>
@@ -2351,6 +2352,12 @@
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="E51:G51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2376,31 +2383,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="G2" s="109" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="G2" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
       <c r="O2" s="52"/>
-      <c r="P2" s="110" t="s">
+      <c r="P2" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="54" t="s">
@@ -2461,10 +2468,10 @@
       <c r="W3" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="111" t="s">
+      <c r="X3" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="111"/>
+      <c r="Y3" s="119"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="57">
@@ -3143,10 +3150,10 @@
       <c r="W32">
         <v>816.178</v>
       </c>
-      <c r="X32" s="112">
+      <c r="X32" s="74">
         <v>25568</v>
       </c>
-      <c r="Y32" s="113">
+      <c r="Y32" s="75">
         <v>0.66666666666666663</v>
       </c>
       <c r="Z32">
@@ -3185,10 +3192,10 @@
       <c r="W33">
         <v>823.47</v>
       </c>
-      <c r="X33" s="112">
+      <c r="X33" s="74">
         <v>25568</v>
       </c>
-      <c r="Y33" s="113">
+      <c r="Y33" s="75">
         <v>0.66666666666666663</v>
       </c>
       <c r="Z33">
@@ -3226,10 +3233,10 @@
       <c r="W34">
         <v>0</v>
       </c>
-      <c r="X34" s="112">
+      <c r="X34" s="74">
         <v>25568</v>
       </c>
-      <c r="Y34" s="113">
+      <c r="Y34" s="75">
         <v>0.66666666666666663</v>
       </c>
       <c r="Z34">
@@ -3264,10 +3271,10 @@
       <c r="W35">
         <v>819.76400000000001</v>
       </c>
-      <c r="X35" s="112">
+      <c r="X35" s="74">
         <v>44020</v>
       </c>
-      <c r="Y35" s="113">
+      <c r="Y35" s="75">
         <v>0.44290509259259259</v>
       </c>
     </row>
@@ -3299,10 +3306,10 @@
       <c r="W36">
         <v>829.41399999999999</v>
       </c>
-      <c r="X36" s="112">
+      <c r="X36" s="74">
         <v>44020</v>
       </c>
-      <c r="Y36" s="113">
+      <c r="Y36" s="75">
         <v>0.44855324074074071</v>
       </c>
     </row>
@@ -3322,10 +3329,10 @@
       <c r="W37">
         <v>822.95799999999997</v>
       </c>
-      <c r="X37" s="112">
+      <c r="X37" s="74">
         <v>44020</v>
       </c>
-      <c r="Y37" s="113">
+      <c r="Y37" s="75">
         <v>0.45236111111111116</v>
       </c>
     </row>
@@ -3345,10 +3352,10 @@
       <c r="W38">
         <v>817.03700000000003</v>
       </c>
-      <c r="X38" s="112">
+      <c r="X38" s="74">
         <v>44020</v>
       </c>
-      <c r="Y38" s="113">
+      <c r="Y38" s="75">
         <v>0.45324074074074078</v>
       </c>
     </row>
